--- a/wbs_MFL.xlsx
+++ b/wbs_MFL.xlsx
@@ -362,11 +362,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -410,10 +410,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -421,26 +422,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,9 +451,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,13 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -499,13 +500,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,7 +522,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,15 +544,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,25 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +625,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,37 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,13 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +721,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,13 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,19 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,32 +1002,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1043,6 +1024,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,15 +1070,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1091,11 +1078,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,49 +1104,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,97 +1155,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1352,7 +1352,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1361,16 +1361,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1388,10 +1388,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,7 +1433,7 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1790,7 +1790,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36:J36"/>
+      <selection pane="bottomLeft" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="19.95" customHeight="1"/>
@@ -5320,7 +5320,7 @@
       <c r="V37" s="16"/>
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
+      <c r="Y37" s="65"/>
       <c r="Z37" s="16"/>
       <c r="AA37" s="16"/>
       <c r="AB37" s="16"/>

--- a/wbs_MFL.xlsx
+++ b/wbs_MFL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12504"/>
+    <workbookView windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
   <si>
     <t>[기업명] WBS</t>
   </si>
@@ -25,31 +25,52 @@
     <t>나의 작은 농장</t>
   </si>
   <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>2일이하  작업량 기준</t>
+    <t>Front-end</t>
+  </si>
+  <si>
+    <t>한기표</t>
+  </si>
+  <si>
+    <t>김채린</t>
   </si>
   <si>
     <t>고객명</t>
   </si>
   <si>
+    <t>Back-end</t>
+  </si>
+  <si>
+    <t>최 준</t>
+  </si>
+  <si>
+    <t>신제헌</t>
+  </si>
+  <si>
     <t>작성자</t>
   </si>
   <si>
     <t>작성일</t>
   </si>
   <si>
+    <t>Ai model</t>
+  </si>
+  <si>
     <t>시작일</t>
   </si>
   <si>
     <t>최종 수정일</t>
   </si>
   <si>
+    <t>Server</t>
+  </si>
+  <si>
     <t>종료일</t>
   </si>
   <si>
     <t>버전</t>
+  </si>
+  <si>
+    <t>DB</t>
   </si>
   <si>
     <t>단계 구분</t>
@@ -240,9 +261,6 @@
     <t>디자인 시안  제작</t>
   </si>
   <si>
-    <t>한기표</t>
-  </si>
-  <si>
     <t>2.2 프로세스 정의</t>
   </si>
   <si>
@@ -261,9 +279,6 @@
     <t>AI Model</t>
   </si>
   <si>
-    <t>김채린</t>
-  </si>
-  <si>
     <t>2.3 외부연동 정의</t>
   </si>
   <si>
@@ -292,9 +307,6 @@
   </si>
   <si>
     <t>기본테이블 구성</t>
-  </si>
-  <si>
-    <t>신제헌</t>
   </si>
   <si>
     <t>3. 구현(개발)</t>
@@ -362,11 +374,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -414,17 +426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,23 +441,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,16 +510,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,6 +519,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +541,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,7 +607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +625,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,61 +757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,85 +775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,26 +1016,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,20 +1062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,153 +1091,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,6 +1409,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1436,6 +1451,9 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,12 +1461,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1788,9 +1800,9 @@
   <dimension ref="A1:DB92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Y37" sqref="Y37"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="19.95" customHeight="1"/>
@@ -1818,7 +1830,7 @@
     <row r="1" ht="40.95" customHeight="1" spans="2:2">
       <c r="B1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="2:9">
+    <row r="2" customHeight="1" spans="2:10">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1836,124 +1848,157 @@
       <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:6">
+      <c r="J2" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:10">
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-    </row>
-    <row r="4" customHeight="1" spans="2:6">
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:10">
       <c r="B4" s="18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-    </row>
-    <row r="5" customHeight="1" spans="2:6">
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:9">
       <c r="B5" s="18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
-    </row>
-    <row r="6" customHeight="1" spans="2:6">
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:9">
       <c r="B6" s="20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
+      <c r="H6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:106">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
+        <v>30</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52"/>
       <c r="AS9" s="67" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AT9" s="67"/>
       <c r="AU9" s="67"/>
@@ -1986,7 +2031,7 @@
       <c r="BV9" s="67"/>
       <c r="BW9" s="67"/>
       <c r="BX9" s="67" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="BY9" s="67"/>
       <c r="BZ9" s="67"/>
@@ -2032,51 +2077,51 @@
       <c r="K10" s="30"/>
       <c r="L10" s="15"/>
       <c r="M10" s="30"/>
-      <c r="N10" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR10" s="53"/>
+      <c r="N10" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR10" s="54"/>
       <c r="AS10" s="68" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AT10" s="68"/>
       <c r="AU10" s="68"/>
@@ -2085,7 +2130,7 @@
       <c r="AX10" s="68"/>
       <c r="AY10" s="68"/>
       <c r="AZ10" s="68" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="BA10" s="68"/>
       <c r="BB10" s="68"/>
@@ -2094,7 +2139,7 @@
       <c r="BE10" s="68"/>
       <c r="BF10" s="68"/>
       <c r="BG10" s="68" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="BH10" s="68"/>
       <c r="BI10" s="68"/>
@@ -2103,7 +2148,7 @@
       <c r="BL10" s="68"/>
       <c r="BM10" s="68"/>
       <c r="BN10" s="68" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="BO10" s="68"/>
       <c r="BP10" s="68"/>
@@ -2112,12 +2157,12 @@
       <c r="BS10" s="68"/>
       <c r="BT10" s="68"/>
       <c r="BU10" s="68" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BV10" s="68"/>
       <c r="BW10" s="68"/>
       <c r="BX10" s="68" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BY10" s="68"/>
       <c r="BZ10" s="68"/>
@@ -2126,7 +2171,7 @@
       <c r="CC10" s="68"/>
       <c r="CD10" s="68"/>
       <c r="CE10" s="68" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="CF10" s="68"/>
       <c r="CG10" s="68"/>
@@ -2135,7 +2180,7 @@
       <c r="CJ10" s="68"/>
       <c r="CK10" s="68"/>
       <c r="CL10" s="68" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="CM10" s="68"/>
       <c r="CN10" s="68"/>
@@ -2144,7 +2189,7 @@
       <c r="CQ10" s="68"/>
       <c r="CR10" s="68"/>
       <c r="CS10" s="68" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="CT10" s="68"/>
       <c r="CU10" s="68"/>
@@ -2153,7 +2198,7 @@
       <c r="CX10" s="68"/>
       <c r="CY10" s="68"/>
       <c r="CZ10" s="68" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="DA10" s="68"/>
       <c r="DB10" s="68"/>
@@ -2171,299 +2216,299 @@
       <c r="K11" s="31"/>
       <c r="L11" s="15"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="T11" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="54" t="s">
+      <c r="N11" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="54" t="s">
+      <c r="O11" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="W11" s="54" t="s">
+      <c r="P11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="X11" s="54" t="s">
+      <c r="Q11" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="Y11" s="54" t="s">
+      <c r="R11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="54" t="s">
+      <c r="S11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="AA11" s="54" t="s">
+      <c r="T11" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="AB11" s="54" t="s">
+      <c r="U11" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" s="54" t="s">
+      <c r="V11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="AD11" s="54" t="s">
+      <c r="W11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AE11" s="54" t="s">
+      <c r="X11" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="AF11" s="54" t="s">
+      <c r="Y11" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AG11" s="54" t="s">
+      <c r="Z11" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AH11" s="54" t="s">
+      <c r="AA11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="AI11" s="54" t="s">
+      <c r="AB11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="AJ11" s="54" t="s">
+      <c r="AC11" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="AK11" s="54" t="s">
+      <c r="AD11" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AL11" s="54" t="s">
+      <c r="AE11" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AM11" s="54" t="s">
+      <c r="AF11" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AN11" s="54" t="s">
+      <c r="AG11" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AO11" s="54" t="s">
+      <c r="AH11" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="AP11" s="54" t="s">
+      <c r="AI11" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AQ11" s="54" t="s">
+      <c r="AJ11" s="55" t="s">
         <v>63</v>
       </c>
+      <c r="AK11" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL11" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM11" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO11" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP11" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ11" s="55" t="s">
+        <v>70</v>
+      </c>
       <c r="AR11" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS11" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT11" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU11" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV11" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW11" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX11" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY11" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ11" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA11" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB11" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC11" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD11" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE11" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF11" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG11" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH11" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI11" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ11" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK11" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL11" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM11" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN11" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO11" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AS11" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT11" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU11" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV11" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX11" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY11" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ11" s="54" t="s">
+      <c r="BP11" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ11" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS11" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT11" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU11" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV11" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW11" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX11" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="BA11" s="54" t="s">
+      <c r="BY11" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="BB11" s="54" t="s">
+      <c r="BZ11" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="BC11" s="54" t="s">
+      <c r="CA11" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="BD11" s="54" t="s">
+      <c r="CB11" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="BE11" s="54" t="s">
+      <c r="CC11" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="BF11" s="54" t="s">
+      <c r="CD11" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="BG11" s="54" t="s">
+      <c r="CE11" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="BH11" s="54" t="s">
+      <c r="CF11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="BI11" s="54" t="s">
+      <c r="CG11" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="BJ11" s="54" t="s">
+      <c r="CH11" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="BK11" s="54" t="s">
+      <c r="CI11" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="BL11" s="54" t="s">
+      <c r="CJ11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="BM11" s="54" t="s">
+      <c r="CK11" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="BN11" s="54" t="s">
+      <c r="CL11" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="BO11" s="54" t="s">
+      <c r="CM11" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="BP11" s="54" t="s">
+      <c r="CN11" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="BQ11" s="54" t="s">
+      <c r="CO11" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="BR11" s="54" t="s">
+      <c r="CP11" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="BS11" s="54" t="s">
+      <c r="CQ11" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="BT11" s="54" t="s">
+      <c r="CR11" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="BU11" s="54" t="s">
+      <c r="CS11" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="BV11" s="54" t="s">
+      <c r="CT11" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="BW11" s="70" t="s">
+      <c r="CU11" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="BX11" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="BY11" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ11" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="CA11" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="CB11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC11" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="CD11" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="CE11" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="CF11" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="CG11" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH11" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="CI11" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="CJ11" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="CK11" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="CL11" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="CM11" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="CN11" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="CO11" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP11" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="CQ11" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="CR11" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="CS11" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="CT11" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU11" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="CV11" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="CW11" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="CX11" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY11" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="CZ11" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="DA11" s="54" t="s">
-        <v>64</v>
+      <c r="CV11" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="CW11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="CX11" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="CY11" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="CZ11" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="DA11" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="DB11" s="70" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:106">
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="55"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="33">
@@ -2570,7 +2615,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="56"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="36">
@@ -2678,7 +2723,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="56"/>
+      <c r="I14" s="57"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="36">
@@ -2781,14 +2826,14 @@
     </row>
     <row r="15" customHeight="1" spans="3:106">
       <c r="C15" s="32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="55"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="33">
@@ -2892,7 +2937,7 @@
     <row r="16" customHeight="1" spans="7:106">
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="36">
@@ -2996,7 +3041,7 @@
     <row r="17" customHeight="1" spans="7:106">
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="57"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
       <c r="L17" s="36">
@@ -3099,14 +3144,14 @@
     </row>
     <row r="18" customHeight="1" spans="3:106">
       <c r="C18" s="32" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="55"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="33">
@@ -3210,7 +3255,7 @@
     <row r="19" customHeight="1" spans="7:106">
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="L19" s="36">
@@ -3316,25 +3361,25 @@
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="58"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="59">
+      <c r="L20" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="59"/>
+      <c r="M20" s="60"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
@@ -3420,15 +3465,15 @@
     <row r="21" s="3" customFormat="1" customHeight="1" spans="1:106">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
       <c r="F21" s="43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G21" s="38">
         <v>44722</v>
@@ -3436,28 +3481,28 @@
       <c r="H21" s="38">
         <v>44725</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
       <c r="L21" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="33"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="16"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
@@ -3540,13 +3585,13 @@
     <row r="22" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C22" s="44"/>
       <c r="D22" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G22" s="38">
         <v>44722</v>
@@ -3569,19 +3614,19 @@
       </c>
       <c r="M22" s="36"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="16"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
@@ -3668,7 +3713,7 @@
       <c r="F23" s="45"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="62"/>
+      <c r="I23" s="64"/>
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
       <c r="L23" s="36">
@@ -3677,19 +3722,19 @@
       </c>
       <c r="M23" s="36"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
@@ -3771,14 +3816,14 @@
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C24" s="41" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G24" s="47">
         <v>44725</v>
@@ -3786,7 +3831,7 @@
       <c r="H24" s="47">
         <v>44736</v>
       </c>
-      <c r="I24" s="63"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="47">
         <v>44725</v>
       </c>
@@ -3797,19 +3842,19 @@
       </c>
       <c r="M24" s="33"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
@@ -3892,19 +3937,19 @@
     <row r="25" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C25" s="44"/>
       <c r="D25" s="44" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G25" s="47">
         <v>44725</v>
       </c>
       <c r="H25" s="46"/>
-      <c r="I25" s="62"/>
+      <c r="I25" s="64"/>
       <c r="J25" s="46"/>
       <c r="K25" s="46"/>
       <c r="L25" s="36">
@@ -3913,19 +3958,19 @@
       </c>
       <c r="M25" s="36"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
@@ -4008,19 +4053,19 @@
     <row r="26" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C26" s="44"/>
       <c r="D26" s="44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E26" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="43" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="G26" s="47">
         <v>44725</v>
       </c>
       <c r="H26" s="46"/>
-      <c r="I26" s="62"/>
+      <c r="I26" s="64"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
       <c r="L26" s="36">
@@ -4029,19 +4074,19 @@
       </c>
       <c r="M26" s="36"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
       <c r="AE26" s="16"/>
@@ -4124,19 +4169,19 @@
     <row r="27" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C27" s="44"/>
       <c r="D27" s="44" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G27" s="47">
         <v>44725</v>
       </c>
       <c r="H27" s="46"/>
-      <c r="I27" s="62"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
       <c r="L27" s="36">
@@ -4145,19 +4190,19 @@
       </c>
       <c r="M27" s="36"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
       <c r="AE27" s="16"/>
@@ -4239,12 +4284,12 @@
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C28" s="41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G28" s="47">
         <v>44715</v>
@@ -4252,7 +4297,7 @@
       <c r="H28" s="47">
         <v>44720</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="65">
         <v>0.5</v>
       </c>
       <c r="J28" s="47">
@@ -4265,19 +4310,19 @@
       </c>
       <c r="M28" s="33"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
       <c r="AC28" s="16"/>
       <c r="AD28" s="16"/>
       <c r="AE28" s="16"/>
@@ -4360,17 +4405,17 @@
     <row r="29" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C29" s="44"/>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
-      <c r="I29" s="62"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
       <c r="L29" s="36">
@@ -4379,19 +4424,19 @@
       </c>
       <c r="M29" s="36"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
       <c r="AE29" s="16"/>
@@ -4474,35 +4519,35 @@
     <row r="30" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C30" s="44"/>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
-      <c r="I30" s="62"/>
+      <c r="I30" s="64"/>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
@@ -4585,35 +4630,35 @@
     <row r="31" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C31" s="44"/>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
-      <c r="I31" s="62"/>
+      <c r="I31" s="64"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
       <c r="AE31" s="16"/>
@@ -4696,17 +4741,17 @@
     <row r="32" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C32" s="44"/>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
-      <c r="I32" s="62"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="46"/>
       <c r="K32" s="46"/>
       <c r="L32" s="36">
@@ -4715,19 +4760,19 @@
       </c>
       <c r="M32" s="36"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="16"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
       <c r="AE32" s="16"/>
@@ -4810,17 +4855,17 @@
     <row r="33" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C33" s="44"/>
       <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="44" t="s">
-        <v>84</v>
-      </c>
       <c r="F33" s="45" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
-      <c r="I33" s="62"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
       <c r="L33" s="36">
@@ -4829,19 +4874,19 @@
       </c>
       <c r="M33" s="36"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="16"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
       <c r="AE33" s="16"/>
@@ -4923,12 +4968,12 @@
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C34" s="41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G34" s="47">
         <v>44725</v>
@@ -4936,7 +4981,7 @@
       <c r="H34" s="47">
         <v>44736</v>
       </c>
-      <c r="I34" s="62"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="47">
         <v>44725</v>
       </c>
@@ -4947,19 +4992,19 @@
       </c>
       <c r="M34" s="33"/>
       <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="16"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
       <c r="AE34" s="16"/>
@@ -5042,19 +5087,19 @@
     <row r="35" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C35" s="44"/>
       <c r="D35" s="44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G35" s="46">
         <v>44725</v>
       </c>
       <c r="H35" s="46"/>
-      <c r="I35" s="62"/>
+      <c r="I35" s="64"/>
       <c r="J35" s="46">
         <v>44725</v>
       </c>
@@ -5065,19 +5110,19 @@
       </c>
       <c r="M35" s="36"/>
       <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="16"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="16"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
@@ -5159,17 +5204,17 @@
     </row>
     <row r="36" customHeight="1" spans="2:106">
       <c r="B36" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G36" s="34">
         <v>44739</v>
@@ -5177,7 +5222,7 @@
       <c r="H36" s="34">
         <v>44750</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="64">
         <v>0.5</v>
       </c>
       <c r="J36" s="38">
@@ -5190,19 +5235,19 @@
       </c>
       <c r="M36" s="33"/>
       <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="16"/>
-      <c r="Z36" s="16"/>
-      <c r="AA36" s="16"/>
-      <c r="AB36" s="16"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
       <c r="AC36" s="16"/>
       <c r="AD36" s="16"/>
       <c r="AE36" s="16"/>
@@ -5284,13 +5329,13 @@
     </row>
     <row r="37" customHeight="1" spans="4:106">
       <c r="D37" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G37" s="38">
         <v>44727</v>
@@ -5298,7 +5343,7 @@
       <c r="H37" s="34">
         <v>44750</v>
       </c>
-      <c r="I37" s="62">
+      <c r="I37" s="64">
         <v>0.5</v>
       </c>
       <c r="J37" s="38">
@@ -5311,19 +5356,19 @@
       </c>
       <c r="M37" s="36"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
       <c r="AE37" s="16"/>
@@ -5405,13 +5450,13 @@
     </row>
     <row r="38" customHeight="1" spans="4:106">
       <c r="D38" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G38" s="38">
         <v>44728</v>
@@ -5419,7 +5464,7 @@
       <c r="H38" s="38">
         <v>44732</v>
       </c>
-      <c r="I38" s="62">
+      <c r="I38" s="64">
         <v>0.5</v>
       </c>
       <c r="J38" s="38">
@@ -5432,19 +5477,19 @@
       </c>
       <c r="M38" s="36"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
@@ -5527,7 +5572,7 @@
     <row r="39" customHeight="1" spans="7:106">
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
-      <c r="I39" s="62"/>
+      <c r="I39" s="64"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
       <c r="L39" s="36">
@@ -5630,14 +5675,14 @@
     </row>
     <row r="40" customHeight="1" spans="3:106">
       <c r="C40" s="32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G40" s="34">
         <v>44722</v>
@@ -5645,7 +5690,7 @@
       <c r="H40" s="34">
         <v>44736</v>
       </c>
-      <c r="I40" s="62">
+      <c r="I40" s="64">
         <v>0</v>
       </c>
       <c r="J40" s="34">
@@ -5752,16 +5797,16 @@
     </row>
     <row r="41" customHeight="1" spans="4:106">
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="G41" s="38">
         <v>44722</v>
       </c>
       <c r="H41" s="38"/>
-      <c r="I41" s="62"/>
+      <c r="I41" s="64"/>
       <c r="J41" s="38"/>
       <c r="K41" s="38"/>
       <c r="L41" s="36">
@@ -5864,7 +5909,7 @@
     <row r="42" customHeight="1" spans="7:106">
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
-      <c r="I42" s="62"/>
+      <c r="I42" s="64"/>
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
       <c r="L42" s="36">
@@ -5968,7 +6013,7 @@
     <row r="43" customHeight="1" spans="7:106">
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
-      <c r="I43" s="62"/>
+      <c r="I43" s="64"/>
       <c r="J43" s="38"/>
       <c r="K43" s="38"/>
       <c r="L43" s="36">
@@ -6071,12 +6116,12 @@
     </row>
     <row r="44" customHeight="1" spans="3:106">
       <c r="C44" s="32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G44" s="34">
         <v>44739</v>
@@ -6084,7 +6129,7 @@
       <c r="H44" s="34">
         <v>44757</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I44" s="64">
         <v>0</v>
       </c>
       <c r="J44" s="34"/>
@@ -6190,7 +6235,7 @@
     <row r="45" customHeight="1" spans="7:106">
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="62"/>
+      <c r="I45" s="64"/>
       <c r="J45" s="38"/>
       <c r="K45" s="38"/>
       <c r="L45" s="36">
@@ -6294,7 +6339,7 @@
     <row r="46" customHeight="1" spans="7:106">
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="62"/>
+      <c r="I46" s="64"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
       <c r="L46" s="36">
@@ -6398,7 +6443,7 @@
     <row r="47" customHeight="1" spans="7:106">
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="62"/>
+      <c r="I47" s="64"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
       <c r="L47" s="36">
@@ -6502,7 +6547,7 @@
     <row r="48" customHeight="1" spans="7:106">
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="62"/>
+      <c r="I48" s="64"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
       <c r="L48" s="36">
@@ -6605,14 +6650,14 @@
     </row>
     <row r="49" customHeight="1" spans="3:106">
       <c r="C49" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G49" s="34">
         <v>44739</v>
@@ -6620,7 +6665,7 @@
       <c r="H49" s="34">
         <v>44771</v>
       </c>
-      <c r="I49" s="62">
+      <c r="I49" s="64">
         <v>0</v>
       </c>
       <c r="J49" s="34"/>
@@ -6725,10 +6770,10 @@
     </row>
     <row r="50" customHeight="1" spans="4:106">
       <c r="D50" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G50" s="38">
         <v>44732</v>
@@ -6736,7 +6781,7 @@
       <c r="H50" s="38">
         <v>44736</v>
       </c>
-      <c r="I50" s="62"/>
+      <c r="I50" s="64"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="36">
@@ -6840,7 +6885,7 @@
     <row r="51" customHeight="1" spans="7:106">
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="62"/>
+      <c r="I51" s="64"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
       <c r="L51" s="36">
@@ -6946,14 +6991,14 @@
       <c r="F52" s="39"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
-      <c r="I52" s="62"/>
+      <c r="I52" s="64"/>
       <c r="J52" s="40"/>
       <c r="K52" s="40"/>
-      <c r="L52" s="59">
+      <c r="L52" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M52" s="59"/>
+      <c r="M52" s="60"/>
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
@@ -7049,15 +7094,15 @@
     </row>
     <row r="53" customHeight="1" spans="2:106">
       <c r="B53" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G53" s="34">
         <v>44774</v>
@@ -7065,7 +7110,7 @@
       <c r="H53" s="34">
         <v>44778</v>
       </c>
-      <c r="I53" s="62"/>
+      <c r="I53" s="64"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
       <c r="L53" s="33">
@@ -7169,7 +7214,7 @@
     <row r="54" customHeight="1" spans="7:106">
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="64"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="36">
@@ -7273,7 +7318,7 @@
     <row r="55" customHeight="1" spans="7:106">
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="64"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="36">
@@ -7377,7 +7422,7 @@
     <row r="56" customHeight="1" spans="7:106">
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="62"/>
+      <c r="I56" s="64"/>
       <c r="J56" s="38"/>
       <c r="K56" s="38"/>
       <c r="L56" s="36">
@@ -7480,12 +7525,12 @@
     </row>
     <row r="57" customHeight="1" spans="3:106">
       <c r="C57" s="41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
       <c r="F57" s="33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G57" s="34">
         <v>44781</v>
@@ -7493,7 +7538,7 @@
       <c r="H57" s="34">
         <v>44785</v>
       </c>
-      <c r="I57" s="62"/>
+      <c r="I57" s="64"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
       <c r="L57" s="33">
@@ -7597,7 +7642,7 @@
     <row r="58" customHeight="1" spans="7:106">
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="62"/>
+      <c r="I58" s="64"/>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
       <c r="L58" s="36">
@@ -7701,7 +7746,7 @@
     <row r="59" customHeight="1" spans="7:106">
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
-      <c r="I59" s="62"/>
+      <c r="I59" s="64"/>
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
       <c r="L59" s="36">
@@ -7807,14 +7852,14 @@
       <c r="F60" s="39"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
-      <c r="I60" s="62"/>
+      <c r="I60" s="64"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
-      <c r="L60" s="59">
+      <c r="L60" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M60" s="59"/>
+      <c r="M60" s="60"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
@@ -7910,15 +7955,15 @@
     </row>
     <row r="61" customHeight="1" spans="2:13">
       <c r="B61" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G61" s="34">
         <v>44789</v>
@@ -7926,7 +7971,7 @@
       <c r="H61" s="34">
         <v>44792</v>
       </c>
-      <c r="I61" s="62"/>
+      <c r="I61" s="64"/>
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
       <c r="L61" s="33">
@@ -7938,136 +7983,135 @@
     <row r="62" customHeight="1" spans="7:11">
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
-      <c r="I62" s="62"/>
+      <c r="I62" s="64"/>
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
     </row>
     <row r="63" customHeight="1" spans="7:11">
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
-      <c r="I63" s="62"/>
+      <c r="I63" s="64"/>
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
     </row>
     <row r="64" customHeight="1" spans="7:11">
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
-      <c r="I64" s="62"/>
+      <c r="I64" s="64"/>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
     </row>
     <row r="65" customHeight="1" spans="7:11">
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
-      <c r="I65" s="62"/>
+      <c r="I65" s="64"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
     </row>
     <row r="66" customHeight="1" spans="7:11">
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
-      <c r="I66" s="62"/>
+      <c r="I66" s="64"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
     </row>
     <row r="67" customHeight="1" spans="7:11">
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
-      <c r="I67" s="62"/>
+      <c r="I67" s="64"/>
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
     </row>
     <row r="68" customHeight="1" spans="7:11">
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
-      <c r="I68" s="62"/>
+      <c r="I68" s="64"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
     </row>
     <row r="69" customHeight="1" spans="7:11">
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
-      <c r="I69" s="62"/>
+      <c r="I69" s="64"/>
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
     </row>
     <row r="70" customHeight="1" spans="7:11">
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
-      <c r="I70" s="62"/>
+      <c r="I70" s="64"/>
       <c r="J70" s="38"/>
       <c r="K70" s="38"/>
     </row>
     <row r="71" customHeight="1" spans="9:9">
-      <c r="I71" s="62"/>
+      <c r="I71" s="64"/>
     </row>
     <row r="72" customHeight="1" spans="9:9">
-      <c r="I72" s="62"/>
+      <c r="I72" s="64"/>
     </row>
     <row r="73" customHeight="1" spans="9:9">
-      <c r="I73" s="62"/>
+      <c r="I73" s="64"/>
     </row>
     <row r="74" customHeight="1" spans="9:9">
-      <c r="I74" s="62"/>
+      <c r="I74" s="64"/>
     </row>
     <row r="75" customHeight="1" spans="9:9">
-      <c r="I75" s="62"/>
+      <c r="I75" s="64"/>
     </row>
     <row r="76" customHeight="1" spans="9:9">
-      <c r="I76" s="62"/>
+      <c r="I76" s="64"/>
     </row>
     <row r="77" customHeight="1" spans="9:9">
-      <c r="I77" s="62"/>
+      <c r="I77" s="64"/>
     </row>
     <row r="78" customHeight="1" spans="9:9">
-      <c r="I78" s="62"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="79" customHeight="1" spans="9:9">
-      <c r="I79" s="62"/>
+      <c r="I79" s="64"/>
     </row>
     <row r="80" customHeight="1" spans="9:9">
-      <c r="I80" s="62"/>
+      <c r="I80" s="64"/>
     </row>
     <row r="81" customHeight="1" spans="9:9">
-      <c r="I81" s="62"/>
+      <c r="I81" s="64"/>
     </row>
     <row r="82" customHeight="1" spans="9:9">
-      <c r="I82" s="62"/>
+      <c r="I82" s="64"/>
     </row>
     <row r="83" customHeight="1" spans="9:9">
-      <c r="I83" s="62"/>
+      <c r="I83" s="64"/>
     </row>
     <row r="84" customHeight="1" spans="9:9">
-      <c r="I84" s="62"/>
+      <c r="I84" s="64"/>
     </row>
     <row r="85" customHeight="1" spans="9:9">
-      <c r="I85" s="62"/>
+      <c r="I85" s="64"/>
     </row>
     <row r="86" customHeight="1" spans="9:9">
-      <c r="I86" s="62"/>
+      <c r="I86" s="64"/>
     </row>
     <row r="87" customHeight="1" spans="9:9">
-      <c r="I87" s="62"/>
+      <c r="I87" s="64"/>
     </row>
     <row r="88" customHeight="1" spans="9:9">
-      <c r="I88" s="62"/>
+      <c r="I88" s="64"/>
     </row>
     <row r="89" customHeight="1" spans="9:9">
-      <c r="I89" s="62"/>
+      <c r="I89" s="64"/>
     </row>
     <row r="90" customHeight="1" spans="9:9">
-      <c r="I90" s="62"/>
+      <c r="I90" s="64"/>
     </row>
     <row r="91" customHeight="1" spans="9:9">
-      <c r="I91" s="62"/>
+      <c r="I91" s="64"/>
     </row>
     <row r="92" customHeight="1" spans="9:9">
-      <c r="I92" s="62"/>
+      <c r="I92" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:J2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>

--- a/wbs_MFL.xlsx
+++ b/wbs_MFL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
+  <si>
+    <t>기획</t>
+  </si>
+  <si>
+    <t>김채린</t>
+  </si>
   <si>
     <t>[기업명] WBS</t>
   </si>
@@ -31,9 +37,6 @@
     <t>한기표</t>
   </si>
   <si>
-    <t>김채린</t>
-  </si>
-  <si>
     <t>고객명</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>최종 수정일</t>
   </si>
   <si>
-    <t>Server</t>
+    <t>Aws</t>
   </si>
   <si>
     <t>종료일</t>
@@ -349,6 +352,9 @@
   </si>
   <si>
     <t>김채린, 신제헌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java springboot  </t>
   </si>
   <si>
     <t>4.테스트</t>
@@ -374,11 +380,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -419,6 +425,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -433,39 +476,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,30 +531,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,9 +554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +619,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,7 +649,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,25 +721,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,115 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,11 +1020,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,6 +1083,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1076,192 +1117,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,9 +1414,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1800,9 +1803,9 @@
   <dimension ref="A1:DB92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7962962962963" defaultRowHeight="19.95" customHeight="1"/>
@@ -1827,242 +1830,254 @@
     <col min="107" max="16384" width="8.7962962962963" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.95" customHeight="1" spans="2:2">
+    <row r="1" ht="40.95" customHeight="1" spans="2:9">
       <c r="B1" s="7"/>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="2:10">
       <c r="B2" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="12"/>
       <c r="H2" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:10">
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
       <c r="H3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:10">
       <c r="B4" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="H4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:10">
       <c r="B5" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
       <c r="H5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:9">
+        <v>10</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:10">
       <c r="B6" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
       <c r="H6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:106">
       <c r="A9" s="25"/>
       <c r="B9" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="51" t="s">
+      <c r="N9" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="67" t="s">
+      <c r="O9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="67"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="67"/>
-      <c r="BA9" s="67"/>
-      <c r="BB9" s="67"/>
-      <c r="BC9" s="67"/>
-      <c r="BD9" s="67"/>
-      <c r="BE9" s="67"/>
-      <c r="BF9" s="67"/>
-      <c r="BG9" s="67"/>
-      <c r="BH9" s="67"/>
-      <c r="BI9" s="67"/>
-      <c r="BJ9" s="67"/>
-      <c r="BK9" s="67"/>
-      <c r="BL9" s="67"/>
-      <c r="BM9" s="67"/>
-      <c r="BN9" s="67"/>
-      <c r="BO9" s="67"/>
-      <c r="BP9" s="67"/>
-      <c r="BQ9" s="67"/>
-      <c r="BR9" s="67"/>
-      <c r="BS9" s="67"/>
-      <c r="BT9" s="67"/>
-      <c r="BU9" s="67"/>
-      <c r="BV9" s="67"/>
-      <c r="BW9" s="67"/>
-      <c r="BX9" s="67" t="s">
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="BY9" s="67"/>
-      <c r="BZ9" s="67"/>
-      <c r="CA9" s="67"/>
-      <c r="CB9" s="67"/>
-      <c r="CC9" s="67"/>
-      <c r="CD9" s="67"/>
-      <c r="CE9" s="67"/>
-      <c r="CF9" s="67"/>
-      <c r="CG9" s="67"/>
-      <c r="CH9" s="67"/>
-      <c r="CI9" s="67"/>
-      <c r="CJ9" s="67"/>
-      <c r="CK9" s="67"/>
-      <c r="CL9" s="67"/>
-      <c r="CM9" s="67"/>
-      <c r="CN9" s="67"/>
-      <c r="CO9" s="67"/>
-      <c r="CP9" s="67"/>
-      <c r="CQ9" s="67"/>
-      <c r="CR9" s="67"/>
-      <c r="CS9" s="67"/>
-      <c r="CT9" s="67"/>
-      <c r="CU9" s="67"/>
-      <c r="CV9" s="67"/>
-      <c r="CW9" s="67"/>
-      <c r="CX9" s="67"/>
-      <c r="CY9" s="67"/>
-      <c r="CZ9" s="67"/>
-      <c r="DA9" s="67"/>
-      <c r="DB9" s="67"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66"/>
+      <c r="BB9" s="66"/>
+      <c r="BC9" s="66"/>
+      <c r="BD9" s="66"/>
+      <c r="BE9" s="66"/>
+      <c r="BF9" s="66"/>
+      <c r="BG9" s="66"/>
+      <c r="BH9" s="66"/>
+      <c r="BI9" s="66"/>
+      <c r="BJ9" s="66"/>
+      <c r="BK9" s="66"/>
+      <c r="BL9" s="66"/>
+      <c r="BM9" s="66"/>
+      <c r="BN9" s="66"/>
+      <c r="BO9" s="66"/>
+      <c r="BP9" s="66"/>
+      <c r="BQ9" s="66"/>
+      <c r="BR9" s="66"/>
+      <c r="BS9" s="66"/>
+      <c r="BT9" s="66"/>
+      <c r="BU9" s="66"/>
+      <c r="BV9" s="66"/>
+      <c r="BW9" s="66"/>
+      <c r="BX9" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="BY9" s="66"/>
+      <c r="BZ9" s="66"/>
+      <c r="CA9" s="66"/>
+      <c r="CB9" s="66"/>
+      <c r="CC9" s="66"/>
+      <c r="CD9" s="66"/>
+      <c r="CE9" s="66"/>
+      <c r="CF9" s="66"/>
+      <c r="CG9" s="66"/>
+      <c r="CH9" s="66"/>
+      <c r="CI9" s="66"/>
+      <c r="CJ9" s="66"/>
+      <c r="CK9" s="66"/>
+      <c r="CL9" s="66"/>
+      <c r="CM9" s="66"/>
+      <c r="CN9" s="66"/>
+      <c r="CO9" s="66"/>
+      <c r="CP9" s="66"/>
+      <c r="CQ9" s="66"/>
+      <c r="CR9" s="66"/>
+      <c r="CS9" s="66"/>
+      <c r="CT9" s="66"/>
+      <c r="CU9" s="66"/>
+      <c r="CV9" s="66"/>
+      <c r="CW9" s="66"/>
+      <c r="CX9" s="66"/>
+      <c r="CY9" s="66"/>
+      <c r="CZ9" s="66"/>
+      <c r="DA9" s="66"/>
+      <c r="DB9" s="66"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:106">
       <c r="B10" s="26"/>
@@ -2077,131 +2092,131 @@
       <c r="K10" s="30"/>
       <c r="L10" s="15"/>
       <c r="M10" s="30"/>
-      <c r="N10" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="53" t="s">
+      <c r="N10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="53" t="s">
+      <c r="O10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="53" t="s">
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="53" t="s">
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="53" t="s">
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT10" s="68"/>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="68"/>
-      <c r="AZ10" s="68" t="s">
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
+      <c r="AP10" s="53"/>
+      <c r="AQ10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="68"/>
-      <c r="BE10" s="68"/>
-      <c r="BF10" s="68"/>
-      <c r="BG10" s="68" t="s">
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="67"/>
+      <c r="AW10" s="67"/>
+      <c r="AX10" s="67"/>
+      <c r="AY10" s="67"/>
+      <c r="AZ10" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="BH10" s="68"/>
-      <c r="BI10" s="68"/>
-      <c r="BJ10" s="68"/>
-      <c r="BK10" s="68"/>
-      <c r="BL10" s="68"/>
-      <c r="BM10" s="68"/>
-      <c r="BN10" s="68" t="s">
+      <c r="BA10" s="67"/>
+      <c r="BB10" s="67"/>
+      <c r="BC10" s="67"/>
+      <c r="BD10" s="67"/>
+      <c r="BE10" s="67"/>
+      <c r="BF10" s="67"/>
+      <c r="BG10" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="BO10" s="68"/>
-      <c r="BP10" s="68"/>
-      <c r="BQ10" s="68"/>
-      <c r="BR10" s="68"/>
-      <c r="BS10" s="68"/>
-      <c r="BT10" s="68"/>
-      <c r="BU10" s="68" t="s">
+      <c r="BH10" s="67"/>
+      <c r="BI10" s="67"/>
+      <c r="BJ10" s="67"/>
+      <c r="BK10" s="67"/>
+      <c r="BL10" s="67"/>
+      <c r="BM10" s="67"/>
+      <c r="BN10" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="BV10" s="68"/>
-      <c r="BW10" s="68"/>
-      <c r="BX10" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY10" s="68"/>
-      <c r="BZ10" s="68"/>
-      <c r="CA10" s="68"/>
-      <c r="CB10" s="68"/>
-      <c r="CC10" s="68"/>
-      <c r="CD10" s="68"/>
-      <c r="CE10" s="68" t="s">
+      <c r="BO10" s="67"/>
+      <c r="BP10" s="67"/>
+      <c r="BQ10" s="67"/>
+      <c r="BR10" s="67"/>
+      <c r="BS10" s="67"/>
+      <c r="BT10" s="67"/>
+      <c r="BU10" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV10" s="67"/>
+      <c r="BW10" s="67"/>
+      <c r="BX10" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="CF10" s="68"/>
-      <c r="CG10" s="68"/>
-      <c r="CH10" s="68"/>
-      <c r="CI10" s="68"/>
-      <c r="CJ10" s="68"/>
-      <c r="CK10" s="68"/>
-      <c r="CL10" s="68" t="s">
+      <c r="BY10" s="67"/>
+      <c r="BZ10" s="67"/>
+      <c r="CA10" s="67"/>
+      <c r="CB10" s="67"/>
+      <c r="CC10" s="67"/>
+      <c r="CD10" s="67"/>
+      <c r="CE10" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="CM10" s="68"/>
-      <c r="CN10" s="68"/>
-      <c r="CO10" s="68"/>
-      <c r="CP10" s="68"/>
-      <c r="CQ10" s="68"/>
-      <c r="CR10" s="68"/>
-      <c r="CS10" s="68" t="s">
+      <c r="CF10" s="67"/>
+      <c r="CG10" s="67"/>
+      <c r="CH10" s="67"/>
+      <c r="CI10" s="67"/>
+      <c r="CJ10" s="67"/>
+      <c r="CK10" s="67"/>
+      <c r="CL10" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="CT10" s="68"/>
-      <c r="CU10" s="68"/>
-      <c r="CV10" s="68"/>
-      <c r="CW10" s="68"/>
-      <c r="CX10" s="68"/>
-      <c r="CY10" s="68"/>
-      <c r="CZ10" s="68" t="s">
+      <c r="CM10" s="67"/>
+      <c r="CN10" s="67"/>
+      <c r="CO10" s="67"/>
+      <c r="CP10" s="67"/>
+      <c r="CQ10" s="67"/>
+      <c r="CR10" s="67"/>
+      <c r="CS10" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="DA10" s="68"/>
-      <c r="DB10" s="68"/>
+      <c r="CT10" s="67"/>
+      <c r="CU10" s="67"/>
+      <c r="CV10" s="67"/>
+      <c r="CW10" s="67"/>
+      <c r="CX10" s="67"/>
+      <c r="CY10" s="67"/>
+      <c r="CZ10" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="DA10" s="67"/>
+      <c r="DB10" s="67"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:106">
       <c r="B11" s="26"/>
@@ -2216,299 +2231,299 @@
       <c r="K11" s="31"/>
       <c r="L11" s="15"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="55" t="s">
+      <c r="N11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="O11" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="55" t="s">
+      <c r="P11" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="55" t="s">
+      <c r="Q11" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="55" t="s">
+      <c r="R11" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="T11" s="55" t="s">
+      <c r="S11" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="55" t="s">
+      <c r="T11" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="V11" s="55" t="s">
+      <c r="U11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="55" t="s">
+      <c r="V11" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="X11" s="55" t="s">
+      <c r="W11" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="Y11" s="55" t="s">
+      <c r="X11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="55" t="s">
+      <c r="Y11" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="AA11" s="55" t="s">
+      <c r="Z11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AB11" s="55" t="s">
+      <c r="AA11" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AC11" s="55" t="s">
+      <c r="AB11" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AD11" s="55" t="s">
+      <c r="AC11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="55" t="s">
+      <c r="AD11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="55" t="s">
+      <c r="AE11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="AG11" s="55" t="s">
+      <c r="AF11" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AH11" s="55" t="s">
+      <c r="AG11" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="AI11" s="55" t="s">
+      <c r="AH11" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="AJ11" s="55" t="s">
+      <c r="AI11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="AK11" s="55" t="s">
+      <c r="AJ11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AL11" s="55" t="s">
+      <c r="AK11" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AM11" s="55" t="s">
+      <c r="AL11" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AN11" s="55" t="s">
+      <c r="AM11" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="AO11" s="55" t="s">
+      <c r="AN11" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="AP11" s="55" t="s">
+      <c r="AO11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="AQ11" s="55" t="s">
+      <c r="AP11" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="AR11" s="69" t="s">
+      <c r="AQ11" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="AS11" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT11" s="55" t="s">
+      <c r="AR11" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS11" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AU11" s="55" t="s">
+      <c r="AT11" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AV11" s="55" t="s">
+      <c r="AU11" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="AW11" s="55" t="s">
+      <c r="AV11" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AX11" s="55" t="s">
+      <c r="AW11" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AY11" s="55" t="s">
+      <c r="AX11" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AZ11" s="55" t="s">
+      <c r="AY11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="BA11" s="55" t="s">
+      <c r="AZ11" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="BB11" s="55" t="s">
+      <c r="BA11" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="BC11" s="55" t="s">
+      <c r="BB11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="BD11" s="55" t="s">
+      <c r="BC11" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="BE11" s="55" t="s">
+      <c r="BD11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="BF11" s="55" t="s">
+      <c r="BE11" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="BG11" s="55" t="s">
+      <c r="BF11" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="BH11" s="55" t="s">
+      <c r="BG11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="BI11" s="55" t="s">
+      <c r="BH11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="BJ11" s="55" t="s">
+      <c r="BI11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="BK11" s="55" t="s">
+      <c r="BJ11" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="BL11" s="55" t="s">
+      <c r="BK11" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="BM11" s="55" t="s">
+      <c r="BL11" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="BN11" s="55" t="s">
+      <c r="BM11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="BO11" s="55" t="s">
+      <c r="BN11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="BP11" s="55" t="s">
+      <c r="BO11" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="BQ11" s="55" t="s">
+      <c r="BP11" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="BR11" s="55" t="s">
+      <c r="BQ11" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="BS11" s="55" t="s">
+      <c r="BR11" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="BT11" s="55" t="s">
+      <c r="BS11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="BU11" s="55" t="s">
+      <c r="BT11" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="BV11" s="55" t="s">
+      <c r="BU11" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="BW11" s="70" t="s">
+      <c r="BV11" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="BX11" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY11" s="55" t="s">
+      <c r="BW11" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX11" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="BZ11" s="55" t="s">
+      <c r="BY11" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="CA11" s="55" t="s">
+      <c r="BZ11" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="CB11" s="55" t="s">
+      <c r="CA11" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="CC11" s="55" t="s">
+      <c r="CB11" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="CD11" s="55" t="s">
+      <c r="CC11" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="CE11" s="55" t="s">
+      <c r="CD11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="CF11" s="55" t="s">
+      <c r="CE11" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="CG11" s="55" t="s">
+      <c r="CF11" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="CH11" s="55" t="s">
+      <c r="CG11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="CI11" s="55" t="s">
+      <c r="CH11" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="CJ11" s="55" t="s">
+      <c r="CI11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="CK11" s="55" t="s">
+      <c r="CJ11" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="CL11" s="55" t="s">
+      <c r="CK11" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="CM11" s="55" t="s">
+      <c r="CL11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="CN11" s="55" t="s">
+      <c r="CM11" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="CO11" s="55" t="s">
+      <c r="CN11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="CP11" s="55" t="s">
+      <c r="CO11" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="CQ11" s="55" t="s">
+      <c r="CP11" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="CR11" s="55" t="s">
+      <c r="CQ11" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="CS11" s="55" t="s">
+      <c r="CR11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="CT11" s="55" t="s">
+      <c r="CS11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="CU11" s="55" t="s">
+      <c r="CT11" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="CV11" s="55" t="s">
+      <c r="CU11" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="CW11" s="55" t="s">
+      <c r="CV11" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="CX11" s="55" t="s">
+      <c r="CW11" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="CY11" s="55" t="s">
+      <c r="CX11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="CZ11" s="55" t="s">
+      <c r="CY11" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="DA11" s="55" t="s">
+      <c r="CZ11" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="DB11" s="70" t="s">
+      <c r="DA11" s="54" t="s">
         <v>72</v>
+      </c>
+      <c r="DB11" s="69" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:106">
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="56"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="33">
@@ -2576,7 +2591,7 @@
       <c r="BT12" s="16"/>
       <c r="BU12" s="16"/>
       <c r="BV12" s="16"/>
-      <c r="BW12" s="71"/>
+      <c r="BW12" s="70"/>
       <c r="BX12" s="16"/>
       <c r="BY12" s="16"/>
       <c r="BZ12" s="16"/>
@@ -2607,7 +2622,7 @@
       <c r="CY12" s="16"/>
       <c r="CZ12" s="16"/>
       <c r="DA12" s="16"/>
-      <c r="DB12" s="71"/>
+      <c r="DB12" s="70"/>
     </row>
     <row r="13" customHeight="1" spans="3:106">
       <c r="C13" s="35"/>
@@ -2615,7 +2630,7 @@
       <c r="F13" s="36"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="57"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="36">
@@ -2683,7 +2698,7 @@
       <c r="BT13" s="16"/>
       <c r="BU13" s="16"/>
       <c r="BV13" s="16"/>
-      <c r="BW13" s="71"/>
+      <c r="BW13" s="70"/>
       <c r="BX13" s="16"/>
       <c r="BY13" s="16"/>
       <c r="BZ13" s="16"/>
@@ -2714,7 +2729,7 @@
       <c r="CY13" s="16"/>
       <c r="CZ13" s="16"/>
       <c r="DA13" s="16"/>
-      <c r="DB13" s="71"/>
+      <c r="DB13" s="70"/>
     </row>
     <row r="14" customHeight="1" spans="3:106">
       <c r="C14" s="35"/>
@@ -2723,7 +2738,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="56"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
       <c r="L14" s="36">
@@ -2791,7 +2806,7 @@
       <c r="BT14" s="16"/>
       <c r="BU14" s="16"/>
       <c r="BV14" s="16"/>
-      <c r="BW14" s="71"/>
+      <c r="BW14" s="70"/>
       <c r="BX14" s="16"/>
       <c r="BY14" s="16"/>
       <c r="BZ14" s="16"/>
@@ -2822,18 +2837,18 @@
       <c r="CY14" s="16"/>
       <c r="CZ14" s="16"/>
       <c r="DA14" s="16"/>
-      <c r="DB14" s="71"/>
+      <c r="DB14" s="70"/>
     </row>
     <row r="15" customHeight="1" spans="3:106">
       <c r="C15" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
-      <c r="I15" s="56"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="33">
@@ -2901,7 +2916,7 @@
       <c r="BT15" s="16"/>
       <c r="BU15" s="16"/>
       <c r="BV15" s="16"/>
-      <c r="BW15" s="71"/>
+      <c r="BW15" s="70"/>
       <c r="BX15" s="16"/>
       <c r="BY15" s="16"/>
       <c r="BZ15" s="16"/>
@@ -2932,12 +2947,12 @@
       <c r="CY15" s="16"/>
       <c r="CZ15" s="16"/>
       <c r="DA15" s="16"/>
-      <c r="DB15" s="71"/>
+      <c r="DB15" s="70"/>
     </row>
     <row r="16" customHeight="1" spans="7:106">
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="58"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="36">
@@ -3005,7 +3020,7 @@
       <c r="BT16" s="16"/>
       <c r="BU16" s="16"/>
       <c r="BV16" s="16"/>
-      <c r="BW16" s="71"/>
+      <c r="BW16" s="70"/>
       <c r="BX16" s="16"/>
       <c r="BY16" s="16"/>
       <c r="BZ16" s="16"/>
@@ -3036,12 +3051,12 @@
       <c r="CY16" s="16"/>
       <c r="CZ16" s="16"/>
       <c r="DA16" s="16"/>
-      <c r="DB16" s="71"/>
+      <c r="DB16" s="70"/>
     </row>
     <row r="17" customHeight="1" spans="7:106">
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="58"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
       <c r="L17" s="36">
@@ -3109,7 +3124,7 @@
       <c r="BT17" s="16"/>
       <c r="BU17" s="16"/>
       <c r="BV17" s="16"/>
-      <c r="BW17" s="71"/>
+      <c r="BW17" s="70"/>
       <c r="BX17" s="16"/>
       <c r="BY17" s="16"/>
       <c r="BZ17" s="16"/>
@@ -3140,18 +3155,18 @@
       <c r="CY17" s="16"/>
       <c r="CZ17" s="16"/>
       <c r="DA17" s="16"/>
-      <c r="DB17" s="71"/>
+      <c r="DB17" s="70"/>
     </row>
     <row r="18" customHeight="1" spans="3:106">
       <c r="C18" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="I18" s="56"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="33">
@@ -3219,7 +3234,7 @@
       <c r="BT18" s="16"/>
       <c r="BU18" s="16"/>
       <c r="BV18" s="16"/>
-      <c r="BW18" s="71"/>
+      <c r="BW18" s="70"/>
       <c r="BX18" s="16"/>
       <c r="BY18" s="16"/>
       <c r="BZ18" s="16"/>
@@ -3250,12 +3265,12 @@
       <c r="CY18" s="16"/>
       <c r="CZ18" s="16"/>
       <c r="DA18" s="16"/>
-      <c r="DB18" s="71"/>
+      <c r="DB18" s="70"/>
     </row>
     <row r="19" customHeight="1" spans="7:106">
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
-      <c r="I19" s="58"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="L19" s="36">
@@ -3323,7 +3338,7 @@
       <c r="BT19" s="16"/>
       <c r="BU19" s="16"/>
       <c r="BV19" s="16"/>
-      <c r="BW19" s="71"/>
+      <c r="BW19" s="70"/>
       <c r="BX19" s="16"/>
       <c r="BY19" s="16"/>
       <c r="BZ19" s="16"/>
@@ -3354,32 +3369,32 @@
       <c r="CY19" s="16"/>
       <c r="CZ19" s="16"/>
       <c r="DA19" s="16"/>
-      <c r="DB19" s="71"/>
+      <c r="DB19" s="70"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:106">
       <c r="A20" s="4"/>
       <c r="F20" s="39"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="59"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="60">
+      <c r="L20" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="60"/>
+      <c r="M20" s="59"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="16"/>
       <c r="AA20" s="16"/>
       <c r="AB20" s="16"/>
@@ -3429,7 +3444,7 @@
       <c r="BT20" s="16"/>
       <c r="BU20" s="16"/>
       <c r="BV20" s="16"/>
-      <c r="BW20" s="71"/>
+      <c r="BW20" s="70"/>
       <c r="BX20" s="16"/>
       <c r="BY20" s="16"/>
       <c r="BZ20" s="16"/>
@@ -3460,20 +3475,20 @@
       <c r="CY20" s="16"/>
       <c r="CZ20" s="16"/>
       <c r="DA20" s="16"/>
-      <c r="DB20" s="71"/>
+      <c r="DB20" s="70"/>
     </row>
     <row r="21" s="3" customFormat="1" customHeight="1" spans="1:106">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
       <c r="F21" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" s="38">
         <v>44722</v>
@@ -3481,28 +3496,28 @@
       <c r="H21" s="38">
         <v>44725</v>
       </c>
-      <c r="I21" s="61"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="33"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
       <c r="AE21" s="16"/>
@@ -3549,7 +3564,7 @@
       <c r="BT21" s="16"/>
       <c r="BU21" s="16"/>
       <c r="BV21" s="16"/>
-      <c r="BW21" s="71"/>
+      <c r="BW21" s="70"/>
       <c r="BX21" s="16"/>
       <c r="BY21" s="16"/>
       <c r="BZ21" s="16"/>
@@ -3580,18 +3595,18 @@
       <c r="CY21" s="16"/>
       <c r="CZ21" s="16"/>
       <c r="DA21" s="16"/>
-      <c r="DB21" s="71"/>
+      <c r="DB21" s="70"/>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C22" s="44"/>
       <c r="D22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="G22" s="38">
         <v>44722</v>
@@ -3614,19 +3629,19 @@
       </c>
       <c r="M22" s="36"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
       <c r="AC22" s="16"/>
       <c r="AD22" s="16"/>
       <c r="AE22" s="16"/>
@@ -3673,7 +3688,7 @@
       <c r="BT22" s="16"/>
       <c r="BU22" s="16"/>
       <c r="BV22" s="16"/>
-      <c r="BW22" s="71"/>
+      <c r="BW22" s="70"/>
       <c r="BX22" s="16"/>
       <c r="BY22" s="16"/>
       <c r="BZ22" s="16"/>
@@ -3704,7 +3719,7 @@
       <c r="CY22" s="16"/>
       <c r="CZ22" s="16"/>
       <c r="DA22" s="16"/>
-      <c r="DB22" s="71"/>
+      <c r="DB22" s="70"/>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C23" s="44"/>
@@ -3713,7 +3728,7 @@
       <c r="F23" s="45"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="64"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
       <c r="L23" s="36">
@@ -3722,19 +3737,19 @@
       </c>
       <c r="M23" s="36"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
       <c r="AE23" s="16"/>
@@ -3781,7 +3796,7 @@
       <c r="BT23" s="16"/>
       <c r="BU23" s="16"/>
       <c r="BV23" s="16"/>
-      <c r="BW23" s="71"/>
+      <c r="BW23" s="70"/>
       <c r="BX23" s="16"/>
       <c r="BY23" s="16"/>
       <c r="BZ23" s="16"/>
@@ -3812,18 +3827,18 @@
       <c r="CY23" s="16"/>
       <c r="CZ23" s="16"/>
       <c r="DA23" s="16"/>
-      <c r="DB23" s="71"/>
+      <c r="DB23" s="70"/>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C24" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" s="47">
         <v>44725</v>
@@ -3831,7 +3846,7 @@
       <c r="H24" s="47">
         <v>44736</v>
       </c>
-      <c r="I24" s="65"/>
+      <c r="I24" s="64"/>
       <c r="J24" s="47">
         <v>44725</v>
       </c>
@@ -3842,19 +3857,19 @@
       </c>
       <c r="M24" s="33"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
       <c r="AE24" s="16"/>
@@ -3901,7 +3916,7 @@
       <c r="BT24" s="16"/>
       <c r="BU24" s="16"/>
       <c r="BV24" s="16"/>
-      <c r="BW24" s="71"/>
+      <c r="BW24" s="70"/>
       <c r="BX24" s="16"/>
       <c r="BY24" s="16"/>
       <c r="BZ24" s="16"/>
@@ -3932,24 +3947,24 @@
       <c r="CY24" s="16"/>
       <c r="CZ24" s="16"/>
       <c r="DA24" s="16"/>
-      <c r="DB24" s="71"/>
+      <c r="DB24" s="70"/>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C25" s="44"/>
       <c r="D25" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" s="47">
         <v>44725</v>
       </c>
       <c r="H25" s="46"/>
-      <c r="I25" s="64"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="46"/>
       <c r="K25" s="46"/>
       <c r="L25" s="36">
@@ -3958,19 +3973,19 @@
       </c>
       <c r="M25" s="36"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
       <c r="AC25" s="16"/>
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
@@ -4017,7 +4032,7 @@
       <c r="BT25" s="16"/>
       <c r="BU25" s="16"/>
       <c r="BV25" s="16"/>
-      <c r="BW25" s="71"/>
+      <c r="BW25" s="70"/>
       <c r="BX25" s="16"/>
       <c r="BY25" s="16"/>
       <c r="BZ25" s="16"/>
@@ -4048,24 +4063,24 @@
       <c r="CY25" s="16"/>
       <c r="CZ25" s="16"/>
       <c r="DA25" s="16"/>
-      <c r="DB25" s="71"/>
+      <c r="DB25" s="70"/>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C26" s="44"/>
       <c r="D26" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" s="47">
         <v>44725</v>
       </c>
       <c r="H26" s="46"/>
-      <c r="I26" s="64"/>
+      <c r="I26" s="63"/>
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
       <c r="L26" s="36">
@@ -4074,19 +4089,19 @@
       </c>
       <c r="M26" s="36"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
       <c r="AC26" s="16"/>
       <c r="AD26" s="16"/>
       <c r="AE26" s="16"/>
@@ -4133,7 +4148,7 @@
       <c r="BT26" s="16"/>
       <c r="BU26" s="16"/>
       <c r="BV26" s="16"/>
-      <c r="BW26" s="71"/>
+      <c r="BW26" s="70"/>
       <c r="BX26" s="16"/>
       <c r="BY26" s="16"/>
       <c r="BZ26" s="16"/>
@@ -4164,24 +4179,24 @@
       <c r="CY26" s="16"/>
       <c r="CZ26" s="16"/>
       <c r="DA26" s="16"/>
-      <c r="DB26" s="71"/>
+      <c r="DB26" s="70"/>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C27" s="44"/>
       <c r="D27" s="44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" s="47">
         <v>44725</v>
       </c>
       <c r="H27" s="46"/>
-      <c r="I27" s="64"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="46"/>
       <c r="K27" s="46"/>
       <c r="L27" s="36">
@@ -4190,19 +4205,19 @@
       </c>
       <c r="M27" s="36"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
       <c r="AE27" s="16"/>
@@ -4249,7 +4264,7 @@
       <c r="BT27" s="16"/>
       <c r="BU27" s="16"/>
       <c r="BV27" s="16"/>
-      <c r="BW27" s="71"/>
+      <c r="BW27" s="70"/>
       <c r="BX27" s="16"/>
       <c r="BY27" s="16"/>
       <c r="BZ27" s="16"/>
@@ -4280,16 +4295,16 @@
       <c r="CY27" s="16"/>
       <c r="CZ27" s="16"/>
       <c r="DA27" s="16"/>
-      <c r="DB27" s="71"/>
+      <c r="DB27" s="70"/>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C28" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" s="47">
         <v>44715</v>
@@ -4297,7 +4312,7 @@
       <c r="H28" s="47">
         <v>44720</v>
       </c>
-      <c r="I28" s="65">
+      <c r="I28" s="64">
         <v>0.5</v>
       </c>
       <c r="J28" s="47">
@@ -4310,19 +4325,19 @@
       </c>
       <c r="M28" s="33"/>
       <c r="O28" s="16"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
       <c r="AC28" s="16"/>
       <c r="AD28" s="16"/>
       <c r="AE28" s="16"/>
@@ -4369,7 +4384,7 @@
       <c r="BT28" s="16"/>
       <c r="BU28" s="16"/>
       <c r="BV28" s="16"/>
-      <c r="BW28" s="71"/>
+      <c r="BW28" s="70"/>
       <c r="BX28" s="16"/>
       <c r="BY28" s="16"/>
       <c r="BZ28" s="16"/>
@@ -4400,22 +4415,22 @@
       <c r="CY28" s="16"/>
       <c r="CZ28" s="16"/>
       <c r="DA28" s="16"/>
-      <c r="DB28" s="71"/>
+      <c r="DB28" s="70"/>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C29" s="44"/>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
-      <c r="I29" s="64"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="46"/>
       <c r="K29" s="46"/>
       <c r="L29" s="36">
@@ -4424,19 +4439,19 @@
       </c>
       <c r="M29" s="36"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
       <c r="AE29" s="16"/>
@@ -4483,7 +4498,7 @@
       <c r="BT29" s="16"/>
       <c r="BU29" s="16"/>
       <c r="BV29" s="16"/>
-      <c r="BW29" s="71"/>
+      <c r="BW29" s="70"/>
       <c r="BX29" s="16"/>
       <c r="BY29" s="16"/>
       <c r="BZ29" s="16"/>
@@ -4514,40 +4529,40 @@
       <c r="CY29" s="16"/>
       <c r="CZ29" s="16"/>
       <c r="DA29" s="16"/>
-      <c r="DB29" s="71"/>
+      <c r="DB29" s="70"/>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C30" s="44"/>
       <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="45" t="s">
         <v>91</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
-      <c r="I30" s="64"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="63"/>
-      <c r="AA30" s="63"/>
-      <c r="AB30" s="63"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
       <c r="AE30" s="16"/>
@@ -4594,7 +4609,7 @@
       <c r="BT30" s="16"/>
       <c r="BU30" s="16"/>
       <c r="BV30" s="16"/>
-      <c r="BW30" s="71"/>
+      <c r="BW30" s="70"/>
       <c r="BX30" s="16"/>
       <c r="BY30" s="16"/>
       <c r="BZ30" s="16"/>
@@ -4625,40 +4640,40 @@
       <c r="CY30" s="16"/>
       <c r="CZ30" s="16"/>
       <c r="DA30" s="16"/>
-      <c r="DB30" s="71"/>
+      <c r="DB30" s="70"/>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C31" s="44"/>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
-      <c r="I31" s="64"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="46"/>
       <c r="K31" s="46"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
       <c r="AE31" s="16"/>
@@ -4705,7 +4720,7 @@
       <c r="BT31" s="16"/>
       <c r="BU31" s="16"/>
       <c r="BV31" s="16"/>
-      <c r="BW31" s="71"/>
+      <c r="BW31" s="70"/>
       <c r="BX31" s="16"/>
       <c r="BY31" s="16"/>
       <c r="BZ31" s="16"/>
@@ -4736,43 +4751,49 @@
       <c r="CY31" s="16"/>
       <c r="CZ31" s="16"/>
       <c r="DA31" s="16"/>
-      <c r="DB31" s="71"/>
+      <c r="DB31" s="70"/>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C32" s="44"/>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
+      <c r="I32" s="63">
+        <v>1</v>
+      </c>
+      <c r="J32" s="46">
+        <v>44733</v>
+      </c>
+      <c r="K32" s="46">
+        <v>44733</v>
+      </c>
       <c r="L32" s="36">
         <f t="shared" ref="L32:L33" si="2">IF(K34-J34=0,0,K34-J34+1)</f>
         <v>-44724</v>
       </c>
       <c r="M32" s="36"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="63"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
       <c r="AE32" s="16"/>
@@ -4819,7 +4840,7 @@
       <c r="BT32" s="16"/>
       <c r="BU32" s="16"/>
       <c r="BV32" s="16"/>
-      <c r="BW32" s="71"/>
+      <c r="BW32" s="70"/>
       <c r="BX32" s="16"/>
       <c r="BY32" s="16"/>
       <c r="BZ32" s="16"/>
@@ -4850,22 +4871,22 @@
       <c r="CY32" s="16"/>
       <c r="CZ32" s="16"/>
       <c r="DA32" s="16"/>
-      <c r="DB32" s="71"/>
+      <c r="DB32" s="70"/>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C33" s="44"/>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
-      <c r="I33" s="64"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="46"/>
       <c r="K33" s="46"/>
       <c r="L33" s="36">
@@ -4874,19 +4895,19 @@
       </c>
       <c r="M33" s="36"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
       <c r="AE33" s="16"/>
@@ -4933,7 +4954,7 @@
       <c r="BT33" s="16"/>
       <c r="BU33" s="16"/>
       <c r="BV33" s="16"/>
-      <c r="BW33" s="71"/>
+      <c r="BW33" s="70"/>
       <c r="BX33" s="16"/>
       <c r="BY33" s="16"/>
       <c r="BZ33" s="16"/>
@@ -4964,16 +4985,16 @@
       <c r="CY33" s="16"/>
       <c r="CZ33" s="16"/>
       <c r="DA33" s="16"/>
-      <c r="DB33" s="71"/>
+      <c r="DB33" s="70"/>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C34" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" s="47">
         <v>44725</v>
@@ -4981,7 +5002,7 @@
       <c r="H34" s="47">
         <v>44736</v>
       </c>
-      <c r="I34" s="64"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="47">
         <v>44725</v>
       </c>
@@ -4992,19 +5013,19 @@
       </c>
       <c r="M34" s="33"/>
       <c r="O34" s="16"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
       <c r="AE34" s="16"/>
@@ -5051,7 +5072,7 @@
       <c r="BT34" s="16"/>
       <c r="BU34" s="16"/>
       <c r="BV34" s="16"/>
-      <c r="BW34" s="71"/>
+      <c r="BW34" s="70"/>
       <c r="BX34" s="16"/>
       <c r="BY34" s="16"/>
       <c r="BZ34" s="16"/>
@@ -5082,24 +5103,24 @@
       <c r="CY34" s="16"/>
       <c r="CZ34" s="16"/>
       <c r="DA34" s="16"/>
-      <c r="DB34" s="71"/>
+      <c r="DB34" s="70"/>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="3:106">
       <c r="C35" s="44"/>
       <c r="D35" s="44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G35" s="46">
         <v>44725</v>
       </c>
       <c r="H35" s="46"/>
-      <c r="I35" s="64"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="46">
         <v>44725</v>
       </c>
@@ -5110,19 +5131,19 @@
       </c>
       <c r="M35" s="36"/>
       <c r="O35" s="16"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="63"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
@@ -5169,7 +5190,7 @@
       <c r="BT35" s="16"/>
       <c r="BU35" s="16"/>
       <c r="BV35" s="16"/>
-      <c r="BW35" s="71"/>
+      <c r="BW35" s="70"/>
       <c r="BX35" s="16"/>
       <c r="BY35" s="16"/>
       <c r="BZ35" s="16"/>
@@ -5200,21 +5221,21 @@
       <c r="CY35" s="16"/>
       <c r="CZ35" s="16"/>
       <c r="DA35" s="16"/>
-      <c r="DB35" s="71"/>
+      <c r="DB35" s="70"/>
     </row>
     <row r="36" customHeight="1" spans="2:106">
       <c r="B36" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G36" s="34">
         <v>44739</v>
@@ -5222,7 +5243,7 @@
       <c r="H36" s="34">
         <v>44750</v>
       </c>
-      <c r="I36" s="64">
+      <c r="I36" s="63">
         <v>0.5</v>
       </c>
       <c r="J36" s="38">
@@ -5235,19 +5256,19 @@
       </c>
       <c r="M36" s="33"/>
       <c r="O36" s="16"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="63"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="62"/>
       <c r="AC36" s="16"/>
       <c r="AD36" s="16"/>
       <c r="AE36" s="16"/>
@@ -5294,7 +5315,7 @@
       <c r="BT36" s="16"/>
       <c r="BU36" s="16"/>
       <c r="BV36" s="16"/>
-      <c r="BW36" s="71"/>
+      <c r="BW36" s="70"/>
       <c r="BX36" s="16"/>
       <c r="BY36" s="16"/>
       <c r="BZ36" s="16"/>
@@ -5325,17 +5346,17 @@
       <c r="CY36" s="16"/>
       <c r="CZ36" s="16"/>
       <c r="DA36" s="16"/>
-      <c r="DB36" s="71"/>
+      <c r="DB36" s="70"/>
     </row>
     <row r="37" customHeight="1" spans="4:106">
       <c r="D37" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" s="38">
         <v>44727</v>
@@ -5343,7 +5364,7 @@
       <c r="H37" s="34">
         <v>44750</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="63">
         <v>0.5</v>
       </c>
       <c r="J37" s="38">
@@ -5356,19 +5377,19 @@
       </c>
       <c r="M37" s="36"/>
       <c r="O37" s="16"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="63"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="62"/>
+      <c r="AB37" s="62"/>
       <c r="AC37" s="16"/>
       <c r="AD37" s="16"/>
       <c r="AE37" s="16"/>
@@ -5415,7 +5436,7 @@
       <c r="BT37" s="16"/>
       <c r="BU37" s="16"/>
       <c r="BV37" s="16"/>
-      <c r="BW37" s="71"/>
+      <c r="BW37" s="70"/>
       <c r="BX37" s="16"/>
       <c r="BY37" s="16"/>
       <c r="BZ37" s="16"/>
@@ -5446,17 +5467,17 @@
       <c r="CY37" s="16"/>
       <c r="CZ37" s="16"/>
       <c r="DA37" s="16"/>
-      <c r="DB37" s="71"/>
+      <c r="DB37" s="70"/>
     </row>
     <row r="38" customHeight="1" spans="4:106">
       <c r="D38" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" s="38">
         <v>44728</v>
@@ -5464,8 +5485,8 @@
       <c r="H38" s="38">
         <v>44732</v>
       </c>
-      <c r="I38" s="64">
-        <v>0.5</v>
+      <c r="I38" s="63">
+        <v>0.8</v>
       </c>
       <c r="J38" s="38">
         <v>44727</v>
@@ -5477,19 +5498,19 @@
       </c>
       <c r="M38" s="36"/>
       <c r="O38" s="16"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="62"/>
+      <c r="AA38" s="62"/>
+      <c r="AB38" s="62"/>
       <c r="AC38" s="16"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
@@ -5536,7 +5557,7 @@
       <c r="BT38" s="16"/>
       <c r="BU38" s="16"/>
       <c r="BV38" s="16"/>
-      <c r="BW38" s="71"/>
+      <c r="BW38" s="70"/>
       <c r="BX38" s="16"/>
       <c r="BY38" s="16"/>
       <c r="BZ38" s="16"/>
@@ -5567,12 +5588,12 @@
       <c r="CY38" s="16"/>
       <c r="CZ38" s="16"/>
       <c r="DA38" s="16"/>
-      <c r="DB38" s="71"/>
+      <c r="DB38" s="70"/>
     </row>
     <row r="39" customHeight="1" spans="7:106">
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
-      <c r="I39" s="64"/>
+      <c r="I39" s="63"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
       <c r="L39" s="36">
@@ -5640,7 +5661,7 @@
       <c r="BT39" s="16"/>
       <c r="BU39" s="16"/>
       <c r="BV39" s="16"/>
-      <c r="BW39" s="71"/>
+      <c r="BW39" s="70"/>
       <c r="BX39" s="16"/>
       <c r="BY39" s="16"/>
       <c r="BZ39" s="16"/>
@@ -5671,26 +5692,26 @@
       <c r="CY39" s="16"/>
       <c r="CZ39" s="16"/>
       <c r="DA39" s="16"/>
-      <c r="DB39" s="71"/>
+      <c r="DB39" s="70"/>
     </row>
     <row r="40" customHeight="1" spans="3:106">
       <c r="C40" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" s="34">
         <v>44722</v>
       </c>
       <c r="H40" s="34">
-        <v>44736</v>
-      </c>
-      <c r="I40" s="64">
+        <v>44743</v>
+      </c>
+      <c r="I40" s="63">
         <v>0</v>
       </c>
       <c r="J40" s="34">
@@ -5762,7 +5783,7 @@
       <c r="BT40" s="16"/>
       <c r="BU40" s="16"/>
       <c r="BV40" s="16"/>
-      <c r="BW40" s="71"/>
+      <c r="BW40" s="70"/>
       <c r="BX40" s="16"/>
       <c r="BY40" s="16"/>
       <c r="BZ40" s="16"/>
@@ -5793,20 +5814,22 @@
       <c r="CY40" s="16"/>
       <c r="CZ40" s="16"/>
       <c r="DA40" s="16"/>
-      <c r="DB40" s="71"/>
+      <c r="DB40" s="70"/>
     </row>
     <row r="41" customHeight="1" spans="4:106">
       <c r="D41" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G41" s="38">
         <v>44722</v>
       </c>
       <c r="H41" s="38"/>
-      <c r="I41" s="64"/>
+      <c r="I41" s="63">
+        <v>0.8</v>
+      </c>
       <c r="J41" s="38"/>
       <c r="K41" s="38"/>
       <c r="L41" s="36">
@@ -5873,7 +5896,7 @@
       <c r="BT41" s="16"/>
       <c r="BU41" s="16"/>
       <c r="BV41" s="16"/>
-      <c r="BW41" s="71"/>
+      <c r="BW41" s="70"/>
       <c r="BX41" s="16"/>
       <c r="BY41" s="16"/>
       <c r="BZ41" s="16"/>
@@ -5904,12 +5927,12 @@
       <c r="CY41" s="16"/>
       <c r="CZ41" s="16"/>
       <c r="DA41" s="16"/>
-      <c r="DB41" s="71"/>
+      <c r="DB41" s="70"/>
     </row>
     <row r="42" customHeight="1" spans="7:106">
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
-      <c r="I42" s="64"/>
+      <c r="I42" s="63"/>
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
       <c r="L42" s="36">
@@ -5977,7 +6000,7 @@
       <c r="BT42" s="16"/>
       <c r="BU42" s="16"/>
       <c r="BV42" s="16"/>
-      <c r="BW42" s="71"/>
+      <c r="BW42" s="70"/>
       <c r="BX42" s="16"/>
       <c r="BY42" s="16"/>
       <c r="BZ42" s="16"/>
@@ -6008,12 +6031,12 @@
       <c r="CY42" s="16"/>
       <c r="CZ42" s="16"/>
       <c r="DA42" s="16"/>
-      <c r="DB42" s="71"/>
+      <c r="DB42" s="70"/>
     </row>
     <row r="43" customHeight="1" spans="7:106">
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
-      <c r="I43" s="64"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="38"/>
       <c r="K43" s="38"/>
       <c r="L43" s="36">
@@ -6081,7 +6104,7 @@
       <c r="BT43" s="16"/>
       <c r="BU43" s="16"/>
       <c r="BV43" s="16"/>
-      <c r="BW43" s="71"/>
+      <c r="BW43" s="70"/>
       <c r="BX43" s="16"/>
       <c r="BY43" s="16"/>
       <c r="BZ43" s="16"/>
@@ -6112,16 +6135,16 @@
       <c r="CY43" s="16"/>
       <c r="CZ43" s="16"/>
       <c r="DA43" s="16"/>
-      <c r="DB43" s="71"/>
+      <c r="DB43" s="70"/>
     </row>
     <row r="44" customHeight="1" spans="3:106">
       <c r="C44" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G44" s="34">
         <v>44739</v>
@@ -6129,7 +6152,7 @@
       <c r="H44" s="34">
         <v>44757</v>
       </c>
-      <c r="I44" s="64">
+      <c r="I44" s="63">
         <v>0</v>
       </c>
       <c r="J44" s="34"/>
@@ -6199,7 +6222,7 @@
       <c r="BT44" s="16"/>
       <c r="BU44" s="16"/>
       <c r="BV44" s="16"/>
-      <c r="BW44" s="71"/>
+      <c r="BW44" s="70"/>
       <c r="BX44" s="16"/>
       <c r="BY44" s="16"/>
       <c r="BZ44" s="16"/>
@@ -6230,12 +6253,12 @@
       <c r="CY44" s="16"/>
       <c r="CZ44" s="16"/>
       <c r="DA44" s="16"/>
-      <c r="DB44" s="71"/>
+      <c r="DB44" s="70"/>
     </row>
     <row r="45" customHeight="1" spans="7:106">
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="64"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="38"/>
       <c r="K45" s="38"/>
       <c r="L45" s="36">
@@ -6303,7 +6326,7 @@
       <c r="BT45" s="16"/>
       <c r="BU45" s="16"/>
       <c r="BV45" s="16"/>
-      <c r="BW45" s="71"/>
+      <c r="BW45" s="70"/>
       <c r="BX45" s="16"/>
       <c r="BY45" s="16"/>
       <c r="BZ45" s="16"/>
@@ -6334,12 +6357,12 @@
       <c r="CY45" s="16"/>
       <c r="CZ45" s="16"/>
       <c r="DA45" s="16"/>
-      <c r="DB45" s="71"/>
+      <c r="DB45" s="70"/>
     </row>
     <row r="46" customHeight="1" spans="7:106">
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="64"/>
+      <c r="I46" s="63"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
       <c r="L46" s="36">
@@ -6407,7 +6430,7 @@
       <c r="BT46" s="16"/>
       <c r="BU46" s="16"/>
       <c r="BV46" s="16"/>
-      <c r="BW46" s="71"/>
+      <c r="BW46" s="70"/>
       <c r="BX46" s="16"/>
       <c r="BY46" s="16"/>
       <c r="BZ46" s="16"/>
@@ -6438,12 +6461,12 @@
       <c r="CY46" s="16"/>
       <c r="CZ46" s="16"/>
       <c r="DA46" s="16"/>
-      <c r="DB46" s="71"/>
+      <c r="DB46" s="70"/>
     </row>
     <row r="47" customHeight="1" spans="7:106">
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="64"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
       <c r="L47" s="36">
@@ -6511,7 +6534,7 @@
       <c r="BT47" s="16"/>
       <c r="BU47" s="16"/>
       <c r="BV47" s="16"/>
-      <c r="BW47" s="71"/>
+      <c r="BW47" s="70"/>
       <c r="BX47" s="16"/>
       <c r="BY47" s="16"/>
       <c r="BZ47" s="16"/>
@@ -6542,12 +6565,12 @@
       <c r="CY47" s="16"/>
       <c r="CZ47" s="16"/>
       <c r="DA47" s="16"/>
-      <c r="DB47" s="71"/>
+      <c r="DB47" s="70"/>
     </row>
     <row r="48" customHeight="1" spans="7:106">
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="64"/>
+      <c r="I48" s="63"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
       <c r="L48" s="36">
@@ -6615,7 +6638,7 @@
       <c r="BT48" s="16"/>
       <c r="BU48" s="16"/>
       <c r="BV48" s="16"/>
-      <c r="BW48" s="71"/>
+      <c r="BW48" s="70"/>
       <c r="BX48" s="16"/>
       <c r="BY48" s="16"/>
       <c r="BZ48" s="16"/>
@@ -6646,18 +6669,18 @@
       <c r="CY48" s="16"/>
       <c r="CZ48" s="16"/>
       <c r="DA48" s="16"/>
-      <c r="DB48" s="71"/>
+      <c r="DB48" s="70"/>
     </row>
     <row r="49" customHeight="1" spans="3:106">
       <c r="C49" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G49" s="34">
         <v>44739</v>
@@ -6665,7 +6688,7 @@
       <c r="H49" s="34">
         <v>44771</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="63">
         <v>0</v>
       </c>
       <c r="J49" s="34"/>
@@ -6735,7 +6758,7 @@
       <c r="BT49" s="16"/>
       <c r="BU49" s="16"/>
       <c r="BV49" s="16"/>
-      <c r="BW49" s="71"/>
+      <c r="BW49" s="70"/>
       <c r="BX49" s="16"/>
       <c r="BY49" s="16"/>
       <c r="BZ49" s="16"/>
@@ -6766,14 +6789,14 @@
       <c r="CY49" s="16"/>
       <c r="CZ49" s="16"/>
       <c r="DA49" s="16"/>
-      <c r="DB49" s="71"/>
+      <c r="DB49" s="70"/>
     </row>
     <row r="50" customHeight="1" spans="4:106">
       <c r="D50" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G50" s="38">
         <v>44732</v>
@@ -6781,7 +6804,7 @@
       <c r="H50" s="38">
         <v>44736</v>
       </c>
-      <c r="I50" s="64"/>
+      <c r="I50" s="63"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
       <c r="L50" s="36">
@@ -6849,7 +6872,7 @@
       <c r="BT50" s="16"/>
       <c r="BU50" s="16"/>
       <c r="BV50" s="16"/>
-      <c r="BW50" s="71"/>
+      <c r="BW50" s="70"/>
       <c r="BX50" s="16"/>
       <c r="BY50" s="16"/>
       <c r="BZ50" s="16"/>
@@ -6880,12 +6903,15 @@
       <c r="CY50" s="16"/>
       <c r="CZ50" s="16"/>
       <c r="DA50" s="16"/>
-      <c r="DB50" s="71"/>
-    </row>
-    <row r="51" customHeight="1" spans="7:106">
+      <c r="DB50" s="70"/>
+    </row>
+    <row r="51" customHeight="1" spans="4:106">
+      <c r="D51" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="64"/>
+      <c r="I51" s="63"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
       <c r="L51" s="36">
@@ -6953,7 +6979,7 @@
       <c r="BT51" s="16"/>
       <c r="BU51" s="16"/>
       <c r="BV51" s="16"/>
-      <c r="BW51" s="71"/>
+      <c r="BW51" s="70"/>
       <c r="BX51" s="16"/>
       <c r="BY51" s="16"/>
       <c r="BZ51" s="16"/>
@@ -6984,21 +7010,21 @@
       <c r="CY51" s="16"/>
       <c r="CZ51" s="16"/>
       <c r="DA51" s="16"/>
-      <c r="DB51" s="71"/>
+      <c r="DB51" s="70"/>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="1:106">
       <c r="A52" s="4"/>
       <c r="F52" s="39"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
-      <c r="I52" s="64"/>
+      <c r="I52" s="63"/>
       <c r="J52" s="40"/>
       <c r="K52" s="40"/>
-      <c r="L52" s="60">
+      <c r="L52" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M52" s="60"/>
+      <c r="M52" s="59"/>
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
@@ -7059,7 +7085,7 @@
       <c r="BT52" s="16"/>
       <c r="BU52" s="16"/>
       <c r="BV52" s="16"/>
-      <c r="BW52" s="71"/>
+      <c r="BW52" s="70"/>
       <c r="BX52" s="16"/>
       <c r="BY52" s="16"/>
       <c r="BZ52" s="16"/>
@@ -7090,19 +7116,19 @@
       <c r="CY52" s="16"/>
       <c r="CZ52" s="16"/>
       <c r="DA52" s="16"/>
-      <c r="DB52" s="71"/>
+      <c r="DB52" s="70"/>
     </row>
     <row r="53" customHeight="1" spans="2:106">
       <c r="B53" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G53" s="34">
         <v>44774</v>
@@ -7110,7 +7136,7 @@
       <c r="H53" s="34">
         <v>44778</v>
       </c>
-      <c r="I53" s="64"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
       <c r="L53" s="33">
@@ -7178,7 +7204,7 @@
       <c r="BT53" s="16"/>
       <c r="BU53" s="16"/>
       <c r="BV53" s="16"/>
-      <c r="BW53" s="71"/>
+      <c r="BW53" s="70"/>
       <c r="BX53" s="16"/>
       <c r="BY53" s="16"/>
       <c r="BZ53" s="16"/>
@@ -7209,12 +7235,12 @@
       <c r="CY53" s="16"/>
       <c r="CZ53" s="16"/>
       <c r="DA53" s="16"/>
-      <c r="DB53" s="71"/>
+      <c r="DB53" s="70"/>
     </row>
     <row r="54" customHeight="1" spans="7:106">
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="64"/>
+      <c r="I54" s="63"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="36">
@@ -7282,7 +7308,7 @@
       <c r="BT54" s="16"/>
       <c r="BU54" s="16"/>
       <c r="BV54" s="16"/>
-      <c r="BW54" s="71"/>
+      <c r="BW54" s="70"/>
       <c r="BX54" s="16"/>
       <c r="BY54" s="16"/>
       <c r="BZ54" s="16"/>
@@ -7313,12 +7339,12 @@
       <c r="CY54" s="16"/>
       <c r="CZ54" s="16"/>
       <c r="DA54" s="16"/>
-      <c r="DB54" s="71"/>
+      <c r="DB54" s="70"/>
     </row>
     <row r="55" customHeight="1" spans="7:106">
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="64"/>
+      <c r="I55" s="63"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="36">
@@ -7386,7 +7412,7 @@
       <c r="BT55" s="16"/>
       <c r="BU55" s="16"/>
       <c r="BV55" s="16"/>
-      <c r="BW55" s="71"/>
+      <c r="BW55" s="70"/>
       <c r="BX55" s="16"/>
       <c r="BY55" s="16"/>
       <c r="BZ55" s="16"/>
@@ -7417,12 +7443,12 @@
       <c r="CY55" s="16"/>
       <c r="CZ55" s="16"/>
       <c r="DA55" s="16"/>
-      <c r="DB55" s="71"/>
+      <c r="DB55" s="70"/>
     </row>
     <row r="56" customHeight="1" spans="7:106">
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="64"/>
+      <c r="I56" s="63"/>
       <c r="J56" s="38"/>
       <c r="K56" s="38"/>
       <c r="L56" s="36">
@@ -7490,7 +7516,7 @@
       <c r="BT56" s="16"/>
       <c r="BU56" s="16"/>
       <c r="BV56" s="16"/>
-      <c r="BW56" s="71"/>
+      <c r="BW56" s="70"/>
       <c r="BX56" s="16"/>
       <c r="BY56" s="16"/>
       <c r="BZ56" s="16"/>
@@ -7521,16 +7547,16 @@
       <c r="CY56" s="16"/>
       <c r="CZ56" s="16"/>
       <c r="DA56" s="16"/>
-      <c r="DB56" s="71"/>
+      <c r="DB56" s="70"/>
     </row>
     <row r="57" customHeight="1" spans="3:106">
       <c r="C57" s="41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
       <c r="F57" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G57" s="34">
         <v>44781</v>
@@ -7538,7 +7564,7 @@
       <c r="H57" s="34">
         <v>44785</v>
       </c>
-      <c r="I57" s="64"/>
+      <c r="I57" s="63"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
       <c r="L57" s="33">
@@ -7606,7 +7632,7 @@
       <c r="BT57" s="16"/>
       <c r="BU57" s="16"/>
       <c r="BV57" s="16"/>
-      <c r="BW57" s="71"/>
+      <c r="BW57" s="70"/>
       <c r="BX57" s="16"/>
       <c r="BY57" s="16"/>
       <c r="BZ57" s="16"/>
@@ -7637,12 +7663,12 @@
       <c r="CY57" s="16"/>
       <c r="CZ57" s="16"/>
       <c r="DA57" s="16"/>
-      <c r="DB57" s="71"/>
+      <c r="DB57" s="70"/>
     </row>
     <row r="58" customHeight="1" spans="7:106">
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="64"/>
+      <c r="I58" s="63"/>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
       <c r="L58" s="36">
@@ -7710,7 +7736,7 @@
       <c r="BT58" s="16"/>
       <c r="BU58" s="16"/>
       <c r="BV58" s="16"/>
-      <c r="BW58" s="71"/>
+      <c r="BW58" s="70"/>
       <c r="BX58" s="16"/>
       <c r="BY58" s="16"/>
       <c r="BZ58" s="16"/>
@@ -7741,12 +7767,12 @@
       <c r="CY58" s="16"/>
       <c r="CZ58" s="16"/>
       <c r="DA58" s="16"/>
-      <c r="DB58" s="71"/>
+      <c r="DB58" s="70"/>
     </row>
     <row r="59" customHeight="1" spans="7:106">
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
-      <c r="I59" s="64"/>
+      <c r="I59" s="63"/>
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
       <c r="L59" s="36">
@@ -7814,7 +7840,7 @@
       <c r="BT59" s="16"/>
       <c r="BU59" s="16"/>
       <c r="BV59" s="16"/>
-      <c r="BW59" s="71"/>
+      <c r="BW59" s="70"/>
       <c r="BX59" s="16"/>
       <c r="BY59" s="16"/>
       <c r="BZ59" s="16"/>
@@ -7845,21 +7871,21 @@
       <c r="CY59" s="16"/>
       <c r="CZ59" s="16"/>
       <c r="DA59" s="16"/>
-      <c r="DB59" s="71"/>
+      <c r="DB59" s="70"/>
     </row>
     <row r="60" s="2" customFormat="1" customHeight="1" spans="1:106">
       <c r="A60" s="4"/>
       <c r="F60" s="39"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
-      <c r="I60" s="64"/>
+      <c r="I60" s="63"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
-      <c r="L60" s="60">
+      <c r="L60" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M60" s="60"/>
+      <c r="M60" s="59"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
@@ -7920,7 +7946,7 @@
       <c r="BT60" s="16"/>
       <c r="BU60" s="16"/>
       <c r="BV60" s="16"/>
-      <c r="BW60" s="71"/>
+      <c r="BW60" s="70"/>
       <c r="BX60" s="16"/>
       <c r="BY60" s="16"/>
       <c r="BZ60" s="16"/>
@@ -7951,19 +7977,19 @@
       <c r="CY60" s="16"/>
       <c r="CZ60" s="16"/>
       <c r="DA60" s="16"/>
-      <c r="DB60" s="71"/>
+      <c r="DB60" s="70"/>
     </row>
     <row r="61" customHeight="1" spans="2:13">
       <c r="B61" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
       <c r="F61" s="33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G61" s="34">
         <v>44789</v>
@@ -7971,7 +7997,7 @@
       <c r="H61" s="34">
         <v>44792</v>
       </c>
-      <c r="I61" s="64"/>
+      <c r="I61" s="63"/>
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
       <c r="L61" s="33">
@@ -7983,131 +8009,131 @@
     <row r="62" customHeight="1" spans="7:11">
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
-      <c r="I62" s="64"/>
+      <c r="I62" s="63"/>
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
     </row>
     <row r="63" customHeight="1" spans="7:11">
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
-      <c r="I63" s="64"/>
+      <c r="I63" s="63"/>
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
     </row>
     <row r="64" customHeight="1" spans="7:11">
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
-      <c r="I64" s="64"/>
+      <c r="I64" s="63"/>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
     </row>
     <row r="65" customHeight="1" spans="7:11">
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
-      <c r="I65" s="64"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
     </row>
     <row r="66" customHeight="1" spans="7:11">
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
-      <c r="I66" s="64"/>
+      <c r="I66" s="63"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
     </row>
     <row r="67" customHeight="1" spans="7:11">
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
-      <c r="I67" s="64"/>
+      <c r="I67" s="63"/>
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
     </row>
     <row r="68" customHeight="1" spans="7:11">
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
-      <c r="I68" s="64"/>
+      <c r="I68" s="63"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
     </row>
     <row r="69" customHeight="1" spans="7:11">
       <c r="G69" s="38"/>
       <c r="H69" s="38"/>
-      <c r="I69" s="64"/>
+      <c r="I69" s="63"/>
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
     </row>
     <row r="70" customHeight="1" spans="7:11">
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
-      <c r="I70" s="64"/>
+      <c r="I70" s="63"/>
       <c r="J70" s="38"/>
       <c r="K70" s="38"/>
     </row>
     <row r="71" customHeight="1" spans="9:9">
-      <c r="I71" s="64"/>
+      <c r="I71" s="63"/>
     </row>
     <row r="72" customHeight="1" spans="9:9">
-      <c r="I72" s="64"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" customHeight="1" spans="9:9">
-      <c r="I73" s="64"/>
+      <c r="I73" s="63"/>
     </row>
     <row r="74" customHeight="1" spans="9:9">
-      <c r="I74" s="64"/>
+      <c r="I74" s="63"/>
     </row>
     <row r="75" customHeight="1" spans="9:9">
-      <c r="I75" s="64"/>
+      <c r="I75" s="63"/>
     </row>
     <row r="76" customHeight="1" spans="9:9">
-      <c r="I76" s="64"/>
+      <c r="I76" s="63"/>
     </row>
     <row r="77" customHeight="1" spans="9:9">
-      <c r="I77" s="64"/>
+      <c r="I77" s="63"/>
     </row>
     <row r="78" customHeight="1" spans="9:9">
-      <c r="I78" s="64"/>
+      <c r="I78" s="63"/>
     </row>
     <row r="79" customHeight="1" spans="9:9">
-      <c r="I79" s="64"/>
+      <c r="I79" s="63"/>
     </row>
     <row r="80" customHeight="1" spans="9:9">
-      <c r="I80" s="64"/>
+      <c r="I80" s="63"/>
     </row>
     <row r="81" customHeight="1" spans="9:9">
-      <c r="I81" s="64"/>
+      <c r="I81" s="63"/>
     </row>
     <row r="82" customHeight="1" spans="9:9">
-      <c r="I82" s="64"/>
+      <c r="I82" s="63"/>
     </row>
     <row r="83" customHeight="1" spans="9:9">
-      <c r="I83" s="64"/>
+      <c r="I83" s="63"/>
     </row>
     <row r="84" customHeight="1" spans="9:9">
-      <c r="I84" s="64"/>
+      <c r="I84" s="63"/>
     </row>
     <row r="85" customHeight="1" spans="9:9">
-      <c r="I85" s="64"/>
+      <c r="I85" s="63"/>
     </row>
     <row r="86" customHeight="1" spans="9:9">
-      <c r="I86" s="64"/>
+      <c r="I86" s="63"/>
     </row>
     <row r="87" customHeight="1" spans="9:9">
-      <c r="I87" s="64"/>
+      <c r="I87" s="63"/>
     </row>
     <row r="88" customHeight="1" spans="9:9">
-      <c r="I88" s="64"/>
+      <c r="I88" s="63"/>
     </row>
     <row r="89" customHeight="1" spans="9:9">
-      <c r="I89" s="64"/>
+      <c r="I89" s="63"/>
     </row>
     <row r="90" customHeight="1" spans="9:9">
-      <c r="I90" s="64"/>
+      <c r="I90" s="63"/>
     </row>
     <row r="91" customHeight="1" spans="9:9">
-      <c r="I91" s="64"/>
+      <c r="I91" s="63"/>
     </row>
     <row r="92" customHeight="1" spans="9:9">
-      <c r="I92" s="64"/>
+      <c r="I92" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="36">
